--- a/Assets/VoiceType_3.xlsx
+++ b/Assets/VoiceType_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEBF404-B6FA-41C6-B5F2-D3EC3A2FE507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB59C4-F921-428D-B924-B3F0237068F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,14 @@
   </si>
   <si>
     <t>ShootDropWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没选自动送礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEnd_NoGift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,18 +612,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="23.25" customWidth="1"/>
     <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
@@ -3593,17 +3602,30 @@
       <c r="BF41" s="1"/>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>

--- a/Assets/VoiceType_3.xlsx
+++ b/Assets/VoiceType_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB59C4-F921-428D-B924-B3F0237068F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C6107-52F0-4183-AC9F-47F27BF053B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>GameEnd_NoGift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootDrop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +617,7 @@
   <dimension ref="A1:BF285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:L42"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1217,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1507,7 +1511,7 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2231,7 +2235,7 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
-    <row r="23" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2259,7 +2263,9 @@
       <c r="I23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2523,7 +2529,7 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2551,7 +2557,9 @@
       <c r="I27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2841,7 +2849,9 @@
       <c r="I31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>34</v>
       </c>
@@ -3173,7 +3183,7 @@
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
     </row>
-    <row r="36" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
